--- a/SCBAA/2019/Region 3.xlsx
+++ b/SCBAA/2019/Region 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F832A-F424-4E95-96C8-EB26D8A3B64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFCAC28-EFEB-47F7-815D-BCEB6B588B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="285" windowWidth="14685" windowHeight="12495" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="7" activeTab="11" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanga" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -289,7 +296,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="168" formatCode="_(&quot;₱&quot;* #,##0.00_);_(&quot;₱&quot;* \(#,##0.00\);_(&quot;₱&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +420,12 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -561,7 +574,7 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -698,7 +711,6 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -818,6 +830,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1147,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
@@ -1160,54 +1179,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1221,22 +1240,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2355,54 +2374,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2416,22 +2435,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2627,7 +2646,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="60">
         <v>478.33</v>
       </c>
     </row>
@@ -3545,54 +3564,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3606,22 +3625,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3656,7 +3675,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <v>149612009.34</v>
       </c>
     </row>
@@ -3667,7 +3686,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="85">
         <v>548508428.49000001</v>
       </c>
     </row>
@@ -3678,7 +3697,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="85">
         <v>21965311.199999999</v>
       </c>
     </row>
@@ -3710,7 +3729,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="85">
         <v>98200717.379999995</v>
       </c>
     </row>
@@ -3721,7 +3740,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="85">
         <v>43928164.770000003</v>
       </c>
     </row>
@@ -3732,7 +3751,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="85">
         <v>25341437.890000001</v>
       </c>
     </row>
@@ -3764,7 +3783,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="86">
+      <c r="E21" s="85">
         <v>705278759</v>
       </c>
     </row>
@@ -3806,7 +3825,7 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="85">
         <v>439489.71</v>
       </c>
     </row>
@@ -3980,7 +3999,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="86">
+      <c r="E42" s="85">
         <v>209672681.47999999</v>
       </c>
     </row>
@@ -3991,7 +4010,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="85">
         <v>405288942.05000001</v>
       </c>
     </row>
@@ -4002,7 +4021,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="86">
+      <c r="E44" s="85">
         <v>129203322.38</v>
       </c>
     </row>
@@ -4022,7 +4041,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="86">
+      <c r="E46" s="85">
         <v>6398598.8499999996</v>
       </c>
     </row>
@@ -4033,7 +4052,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="86">
+      <c r="E47" s="85">
         <v>95141738.640000015</v>
       </c>
     </row>
@@ -4044,7 +4063,7 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="86">
+      <c r="E48" s="85">
         <v>4805861.75</v>
       </c>
     </row>
@@ -4064,7 +4083,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="86">
+      <c r="E50" s="85">
         <v>58591398.210000001</v>
       </c>
     </row>
@@ -4075,7 +4094,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="86">
+      <c r="E51" s="85">
         <v>59209352.030000001</v>
       </c>
     </row>
@@ -4117,7 +4136,7 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="85">
         <v>5528405.1699999999</v>
       </c>
     </row>
@@ -4159,7 +4178,7 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="86">
+      <c r="E59" s="85">
         <v>3039250</v>
       </c>
     </row>
@@ -4190,7 +4209,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="86">
+      <c r="E62" s="85">
         <v>34148341.620000005</v>
       </c>
     </row>
@@ -4201,7 +4220,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="86">
+      <c r="E63" s="85">
         <v>175279916.47</v>
       </c>
     </row>
@@ -4232,7 +4251,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="86">
+      <c r="E66" s="85">
         <v>47392175.359999999</v>
       </c>
     </row>
@@ -4243,7 +4262,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="86">
+      <c r="E67" s="85">
         <v>130417584.38999999</v>
       </c>
     </row>
@@ -4254,7 +4273,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="86">
+      <c r="E68" s="85">
         <v>78481349.700000003</v>
       </c>
     </row>
@@ -4336,7 +4355,7 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="86">
+      <c r="E76" s="85">
         <v>8015971.3899999997</v>
       </c>
     </row>
@@ -4356,7 +4375,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="94">
+      <c r="E78" s="93">
         <v>64526285.109999999</v>
       </c>
     </row>
@@ -4387,7 +4406,7 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="94">
+      <c r="E81" s="93">
         <v>7596856</v>
       </c>
     </row>
@@ -4398,7 +4417,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="95">
+      <c r="E82" s="94">
         <v>138079955.47999999</v>
       </c>
     </row>
@@ -4449,7 +4468,7 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="86">
+      <c r="E87" s="85">
         <v>34849250.079999998</v>
       </c>
     </row>
@@ -4491,7 +4510,7 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="86">
+      <c r="E91" s="85">
         <v>8619185.2400000002</v>
       </c>
     </row>
@@ -4721,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AB9F7-2B35-45AC-AD80-293C188170D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="B106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,54 +4753,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4795,22 +4814,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4845,7 +4864,9 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -4854,7 +4875,9 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -4863,7 +4886,9 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -4893,7 +4918,9 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -4902,7 +4929,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -4911,7 +4940,9 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -4921,7 +4952,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +4972,9 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -4950,7 +4983,9 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -4959,7 +4994,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="102"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -4968,7 +5003,9 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="52"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -4977,7 +5014,9 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -4986,7 +5025,9 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -4995,7 +5036,9 @@
       <c r="D27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -5013,7 +5056,9 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="52"/>
+      <c r="E29" s="101">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -5022,7 +5067,9 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="103">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -5031,7 +5078,9 @@
         <v>41</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -5049,7 +5098,9 @@
       <c r="D33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -5058,7 +5109,9 @@
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -5067,7 +5120,9 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -5076,7 +5131,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -5131,7 +5188,9 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -5140,7 +5199,9 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -5149,7 +5210,9 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -5158,7 +5221,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -5167,7 +5230,9 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -5176,7 +5241,9 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -5185,7 +5252,9 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="54"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -5203,7 +5272,9 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -5212,7 +5283,9 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="43"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -5221,7 +5294,9 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -5239,7 +5314,9 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -5248,7 +5325,9 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="43"/>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -5257,7 +5336,9 @@
       <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5266,7 +5347,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5275,7 +5356,9 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -5284,7 +5367,9 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="48"/>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -5293,7 +5378,9 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -5311,7 +5398,9 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="43"/>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5320,7 +5409,9 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="43"/>
+      <c r="E63" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5329,7 +5420,9 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="48"/>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -5347,7 +5440,9 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="43"/>
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -5356,7 +5451,9 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="43"/>
+      <c r="E67" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -5365,7 +5462,9 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="43"/>
+      <c r="E68" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -5383,7 +5482,9 @@
       <c r="D70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -5392,7 +5493,9 @@
       <c r="D71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -5401,7 +5504,9 @@
       <c r="D72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="28"/>
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -5428,7 +5533,9 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -5437,7 +5544,9 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="54"/>
+      <c r="E76" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -5446,7 +5555,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="103"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5455,7 +5564,9 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="43"/>
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -5464,7 +5575,9 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="48"/>
+      <c r="E79" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -5473,7 +5586,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="102"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -5482,7 +5595,9 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="43"/>
+      <c r="E81" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -5491,7 +5606,9 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="43"/>
+      <c r="E82" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -5509,7 +5626,9 @@
       <c r="D84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -5518,7 +5637,9 @@
       <c r="D85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -5536,7 +5657,9 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="43"/>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -5545,7 +5668,9 @@
       <c r="D88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="48"/>
+      <c r="E88" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -5563,7 +5688,9 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="49"/>
+      <c r="E90" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -5572,7 +5699,9 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="43"/>
+      <c r="E91" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -5581,7 +5710,9 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="48"/>
+      <c r="E92" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
@@ -5620,7 +5751,9 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="43"/>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -5644,7 +5777,9 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="46"/>
+      <c r="E98" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -5660,7 +5795,9 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="18"/>
+      <c r="E100" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -5676,7 +5813,9 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -5692,7 +5831,9 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="18"/>
+      <c r="E104" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -5708,7 +5849,9 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="18"/>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -5724,7 +5867,9 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -5741,7 +5886,9 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="43"/>
+      <c r="E110" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
@@ -5795,54 +5942,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5856,22 +6003,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5906,7 +6053,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="95">
         <v>218455304.66999999</v>
       </c>
     </row>
@@ -6483,7 +6630,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="96">
+      <c r="E66" s="95">
         <v>82987782.090000004</v>
       </c>
     </row>
@@ -6987,54 +7134,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7048,22 +7195,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7098,7 +7245,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="96">
         <v>156802601.25</v>
       </c>
     </row>
@@ -7109,7 +7256,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <v>36563846.079999998</v>
       </c>
     </row>
@@ -7120,7 +7267,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <v>215690632.47999999</v>
       </c>
     </row>
@@ -7152,7 +7299,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="57">
         <v>65977378.130000003</v>
       </c>
     </row>
@@ -7163,7 +7310,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="57">
         <v>417469949.98000002</v>
       </c>
     </row>
@@ -7174,7 +7321,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="57">
         <v>22499819.309999999</v>
       </c>
     </row>
@@ -7206,7 +7353,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="60">
+      <c r="E21" s="59">
         <v>761546346</v>
       </c>
     </row>
@@ -7217,7 +7364,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="58">
+      <c r="E22" s="57">
         <v>2137295.7200000002</v>
       </c>
     </row>
@@ -7237,7 +7384,7 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="57">
         <v>99644034.780000001</v>
       </c>
     </row>
@@ -7248,7 +7395,7 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="57">
         <v>390807.23</v>
       </c>
     </row>
@@ -7290,7 +7437,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="57">
         <v>12612.9</v>
       </c>
     </row>
@@ -7301,7 +7448,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7422,7 +7569,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="54">
         <v>237715263.94</v>
       </c>
     </row>
@@ -7433,7 +7580,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="54">
         <v>228282561.05000001</v>
       </c>
     </row>
@@ -7444,7 +7591,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="54">
         <v>66284200</v>
       </c>
     </row>
@@ -7464,7 +7611,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="57">
         <v>223000</v>
       </c>
     </row>
@@ -7475,7 +7622,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="57">
         <v>41094603.609999999</v>
       </c>
     </row>
@@ -7486,7 +7633,7 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="58">
+      <c r="E48" s="57">
         <v>10123652.26</v>
       </c>
     </row>
@@ -7506,7 +7653,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="57">
         <v>35085191</v>
       </c>
     </row>
@@ -7517,7 +7664,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="57">
         <v>29784200</v>
       </c>
     </row>
@@ -7590,7 +7737,7 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="54">
         <v>53104386</v>
       </c>
     </row>
@@ -7601,7 +7748,7 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="54">
         <v>7950600</v>
       </c>
     </row>
@@ -7632,7 +7779,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="54">
         <v>17777372</v>
       </c>
     </row>
@@ -7643,7 +7790,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="55">
+      <c r="E63" s="54">
         <v>13311400</v>
       </c>
     </row>
@@ -7674,7 +7821,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="55">
+      <c r="E66" s="54">
         <v>233221241</v>
       </c>
     </row>
@@ -7685,7 +7832,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="54">
         <v>244127933.62</v>
       </c>
     </row>
@@ -7696,7 +7843,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="54">
         <v>11660965.060000001</v>
       </c>
     </row>
@@ -7767,7 +7914,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E75" s="56">
         <v>23871685.039999999</v>
       </c>
     </row>
@@ -7778,7 +7925,7 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="55">
+      <c r="E76" s="54">
         <v>96206991.640000001</v>
       </c>
     </row>
@@ -7798,7 +7945,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="55">
+      <c r="E78" s="54">
         <v>11247249</v>
       </c>
     </row>
@@ -7809,7 +7956,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="55">
+      <c r="E79" s="54">
         <v>9762333</v>
       </c>
     </row>
@@ -7829,7 +7976,7 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="56">
+      <c r="E81" s="55">
         <v>0</v>
       </c>
     </row>
@@ -7840,7 +7987,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="54">
         <v>153937400</v>
       </c>
     </row>
@@ -7933,7 +8080,7 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="56">
+      <c r="E91" s="55">
         <f>62217223.24+250000</f>
         <v>62467223.240000002</v>
       </c>
@@ -7945,7 +8092,7 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E92" s="54">
         <v>0</v>
       </c>
     </row>
@@ -8177,54 +8324,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8238,22 +8385,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8288,7 +8435,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="61">
         <v>73853270.180000007</v>
       </c>
     </row>
@@ -8310,7 +8457,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="62">
         <v>30407671.900000002</v>
       </c>
     </row>
@@ -8353,7 +8500,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="63">
         <v>210036048.22000003</v>
       </c>
     </row>
@@ -8364,7 +8511,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <f>69617805.19-1229305.51</f>
         <v>68388499.679999992</v>
       </c>
@@ -8397,7 +8544,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <v>692754694</v>
       </c>
     </row>
@@ -8408,7 +8555,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="66">
+      <c r="E22" s="65">
         <v>1229305.5099999998</v>
       </c>
     </row>
@@ -8481,7 +8628,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="65">
         <v>53352472.299999997</v>
       </c>
     </row>
@@ -8613,7 +8760,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="63">
         <v>223607198.94999999</v>
       </c>
     </row>
@@ -8624,7 +8771,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="63">
         <f>376727191.46-9529026.32</f>
         <v>367198165.13999999</v>
       </c>
@@ -8636,7 +8783,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="63">
         <v>34672864.049999997</v>
       </c>
     </row>
@@ -8698,7 +8845,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="63">
         <f>103113521.16+14625063.45</f>
         <v>117738584.61</v>
       </c>
@@ -8710,7 +8857,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="63">
         <f>32317164.03+44261251</f>
         <v>76578415.030000001</v>
       </c>
@@ -8722,7 +8869,7 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="64">
+      <c r="E52" s="63">
         <f>585960+127820</f>
         <v>713780</v>
       </c>
@@ -8869,7 +9016,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="64">
+      <c r="E66" s="63">
         <f>7127340.48+4067699.1+10952850.33+5700600.26+36079435.2</f>
         <v>63927925.370000005</v>
       </c>
@@ -8881,7 +9028,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="63">
         <f>5308912.5+600325.58+15996654.35+4056573.83+8645067.15</f>
         <v>34607533.409999996</v>
       </c>
@@ -8893,7 +9040,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="64">
+      <c r="E68" s="63">
         <f>7980+2283633.57+405579.6</f>
         <v>2697193.17</v>
       </c>
@@ -8925,7 +9072,7 @@
       <c r="D71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="64">
+      <c r="E71" s="63">
         <v>9529026.3200000003</v>
       </c>
     </row>
@@ -8936,7 +9083,7 @@
       <c r="D72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="64">
+      <c r="E72" s="63">
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9185,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="64">
+      <c r="E82" s="63">
         <v>59442793.350000001</v>
       </c>
     </row>
@@ -9183,7 +9330,7 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="63">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -9374,54 +9521,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -9435,22 +9582,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -9485,7 +9632,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="67">
         <v>255962561.06</v>
       </c>
     </row>
@@ -9496,7 +9643,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <v>545118606.00999999</v>
       </c>
     </row>
@@ -9507,7 +9654,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>6238703.3099999996</v>
       </c>
     </row>
@@ -9539,7 +9686,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>57682328.68</v>
       </c>
     </row>
@@ -9550,7 +9697,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="67">
         <v>23302343.98</v>
       </c>
     </row>
@@ -9561,7 +9708,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>24116842.210000001</v>
       </c>
     </row>
@@ -9584,7 +9731,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -9593,7 +9740,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>593504116</v>
       </c>
     </row>
@@ -9604,7 +9751,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="67">
+      <c r="E22" s="66">
         <v>1557920.35</v>
       </c>
     </row>
@@ -9624,7 +9771,7 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="67">
         <v>5985795.5099999998</v>
       </c>
     </row>
@@ -9646,7 +9793,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="69">
         <v>0</v>
       </c>
     </row>
@@ -9688,7 +9835,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="67">
         <v>10455950</v>
       </c>
     </row>
@@ -9710,7 +9857,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="68"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -9719,7 +9866,7 @@
       <c r="D33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="67">
         <v>31428.57</v>
       </c>
     </row>
@@ -9741,7 +9888,7 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="70">
         <v>0</v>
       </c>
     </row>
@@ -9800,7 +9947,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="69"/>
+      <c r="E41" s="68"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -9809,7 +9956,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="67">
         <v>135744982.06</v>
       </c>
     </row>
@@ -9820,7 +9967,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="67">
         <v>275280904.25999999</v>
       </c>
     </row>
@@ -9831,7 +9978,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="71">
         <v>79509691.489999995</v>
       </c>
     </row>
@@ -9842,7 +9989,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="69"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -9851,7 +9998,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="67">
         <v>2406766.33</v>
       </c>
     </row>
@@ -9862,7 +10009,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="67">
         <v>7486630.4199999999</v>
       </c>
     </row>
@@ -9873,7 +10020,7 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="67">
         <v>80880512.939999998</v>
       </c>
     </row>
@@ -9884,7 +10031,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="71"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -9893,7 +10040,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="68">
+      <c r="E50" s="67">
         <v>38441465.759999998</v>
       </c>
     </row>
@@ -9904,7 +10051,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="68">
+      <c r="E51" s="67">
         <v>48751118.899999999</v>
       </c>
     </row>
@@ -9915,7 +10062,7 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="68">
+      <c r="E52" s="67">
         <v>1277937</v>
       </c>
     </row>
@@ -9926,7 +10073,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="71"/>
+      <c r="E53" s="70"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -9935,7 +10082,7 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="68">
+      <c r="E54" s="67">
         <v>2588363.44</v>
       </c>
     </row>
@@ -9946,7 +10093,7 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="68">
+      <c r="E55" s="67">
         <v>1822429.0299999998</v>
       </c>
     </row>
@@ -9957,7 +10104,7 @@
       <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="68">
+      <c r="E56" s="67">
         <v>59900</v>
       </c>
     </row>
@@ -9968,7 +10115,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="73"/>
+      <c r="E57" s="72"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -9977,7 +10124,7 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="74">
+      <c r="E58" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9988,7 +10135,7 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="67">
         <v>10845972.559999999</v>
       </c>
     </row>
@@ -9999,7 +10146,7 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="68">
+      <c r="E60" s="67">
         <v>10000000</v>
       </c>
     </row>
@@ -10010,7 +10157,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="73"/>
+      <c r="E61" s="72"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -10019,7 +10166,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="67">
         <v>14087956.48</v>
       </c>
     </row>
@@ -10030,7 +10177,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="68">
+      <c r="E63" s="67">
         <v>46431997.920000032</v>
       </c>
     </row>
@@ -10041,7 +10188,7 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="68">
+      <c r="E64" s="67">
         <v>826950</v>
       </c>
     </row>
@@ -10052,7 +10199,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="71"/>
+      <c r="E65" s="70"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -10061,7 +10208,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="68">
+      <c r="E66" s="67">
         <v>18529334.59</v>
       </c>
     </row>
@@ -10072,7 +10219,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="67">
         <v>90450131.120000005</v>
       </c>
     </row>
@@ -10083,7 +10230,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="68">
+      <c r="E68" s="67">
         <v>17771934</v>
       </c>
     </row>
@@ -10094,7 +10241,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="69"/>
+      <c r="E69" s="68"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -10136,7 +10283,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="69"/>
+      <c r="E73" s="68"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -10154,7 +10301,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="71">
+      <c r="E75" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10165,7 +10312,7 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="71">
+      <c r="E76" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10185,7 +10332,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="68">
+      <c r="E78" s="67">
         <v>5826842.7999999998</v>
       </c>
     </row>
@@ -10196,7 +10343,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="68">
+      <c r="E79" s="67">
         <v>24899192.219999999</v>
       </c>
     </row>
@@ -10216,7 +10363,7 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="67">
         <v>17177377.050000001</v>
       </c>
     </row>
@@ -10227,7 +10374,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="68">
+      <c r="E82" s="67">
         <v>21699359.760000002</v>
       </c>
     </row>
@@ -10278,7 +10425,7 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="68">
+      <c r="E87" s="67">
         <v>8164886.9199999999</v>
       </c>
     </row>
@@ -10309,7 +10456,7 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="68">
+      <c r="E90" s="67">
         <v>3708839.63</v>
       </c>
     </row>
@@ -10320,7 +10467,7 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="72">
+      <c r="E91" s="71">
         <v>10709232.649999999</v>
       </c>
     </row>
@@ -10331,7 +10478,7 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="74">
+      <c r="E92" s="73">
         <v>0</v>
       </c>
     </row>
@@ -10372,7 +10519,7 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="68">
+      <c r="E96" s="67">
         <v>439521776.87</v>
       </c>
       <c r="F96" s="10"/>
@@ -10398,7 +10545,7 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="71">
+      <c r="E98" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10408,7 +10555,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="69"/>
+      <c r="E99" s="68"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -10416,7 +10563,7 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="71">
+      <c r="E100" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10426,7 +10573,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="69"/>
+      <c r="E101" s="68"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -10434,7 +10581,7 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="71">
+      <c r="E102" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10444,7 +10591,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="69"/>
+      <c r="E103" s="68"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -10452,7 +10599,7 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="71">
+      <c r="E104" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10462,7 +10609,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="69"/>
+      <c r="E105" s="68"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -10470,7 +10617,7 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="71">
+      <c r="E106" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10480,7 +10627,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="69"/>
+      <c r="E107" s="68"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -10488,7 +10635,7 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="71">
+      <c r="E108" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10499,7 +10646,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="69"/>
+      <c r="E109" s="68"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -10507,7 +10654,7 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="71">
+      <c r="E110" s="70">
         <v>0</v>
       </c>
     </row>
@@ -10515,7 +10662,7 @@
       <c r="A111" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="75">
+      <c r="E111" s="74">
         <f>SUM(E95:E110)</f>
         <v>439521776.87</v>
       </c>
@@ -10563,54 +10710,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10624,22 +10771,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10674,7 +10821,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="75">
         <v>199254414.59999999</v>
       </c>
     </row>
@@ -10685,7 +10832,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <v>271012440.47000003</v>
       </c>
     </row>
@@ -10696,7 +10843,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="75">
         <v>35088806.109999999</v>
       </c>
     </row>
@@ -10728,7 +10875,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <v>86701422.760000005</v>
       </c>
     </row>
@@ -10739,7 +10886,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="75">
         <v>87978920.609999999</v>
       </c>
     </row>
@@ -10750,7 +10897,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="75">
         <v>2929362.31</v>
       </c>
     </row>
@@ -10782,7 +10929,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="77">
+      <c r="E21" s="76">
         <v>1245898265</v>
       </c>
     </row>
@@ -10793,7 +10940,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="76">
+      <c r="E22" s="75">
         <v>1317241.93</v>
       </c>
     </row>
@@ -10824,7 +10971,7 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="75">
         <v>1442929.68</v>
       </c>
     </row>
@@ -10866,7 +11013,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="75">
         <v>26021830.300000001</v>
       </c>
     </row>
@@ -10998,7 +11145,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="75">
         <f>188809894.8-E54</f>
         <v>187593078.85000002</v>
       </c>
@@ -11010,7 +11157,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="76">
+      <c r="E43" s="75">
         <v>387990697.62916696</v>
       </c>
     </row>
@@ -11041,7 +11188,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="75">
         <v>2466733.1799999997</v>
       </c>
     </row>
@@ -11052,7 +11199,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="76">
+      <c r="E47" s="75">
         <v>92108497.472625703</v>
       </c>
     </row>
@@ -11083,7 +11230,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="75">
         <v>158658687.12</v>
       </c>
     </row>
@@ -11094,7 +11241,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="75">
         <v>94529030.731560737</v>
       </c>
     </row>
@@ -11125,7 +11272,7 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="76">
+      <c r="E54" s="75">
         <v>1216815.95</v>
       </c>
     </row>
@@ -11209,7 +11356,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="76">
+      <c r="E62" s="75">
         <v>7919770.299999998</v>
       </c>
     </row>
@@ -11220,7 +11367,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="75">
         <v>28051275.394068349</v>
       </c>
     </row>
@@ -11251,7 +11398,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="75">
         <v>61691184.870000005</v>
       </c>
     </row>
@@ -11262,7 +11409,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="76">
+      <c r="E67" s="75">
         <v>372489590.5625785</v>
       </c>
     </row>
@@ -11344,7 +11491,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="77">
         <v>13907149.68</v>
       </c>
     </row>
@@ -11375,7 +11522,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="75">
         <v>6493557.75</v>
       </c>
     </row>
@@ -11386,7 +11533,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="76">
+      <c r="E79" s="75">
         <v>4708600</v>
       </c>
     </row>
@@ -11417,7 +11564,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="76">
+      <c r="E82" s="75">
         <v>119145907.12999986</v>
       </c>
     </row>
@@ -11468,7 +11615,7 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="76">
+      <c r="E87" s="75">
         <v>1316486.3999999999</v>
       </c>
     </row>
@@ -11562,7 +11709,7 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="76">
+      <c r="E96" s="75">
         <v>120600</v>
       </c>
       <c r="F96" s="10"/>
@@ -11588,7 +11735,7 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="76">
+      <c r="E98" s="75">
         <v>2802715</v>
       </c>
     </row>
@@ -11606,7 +11753,7 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="76">
+      <c r="E100" s="75">
         <v>4746368</v>
       </c>
     </row>
@@ -11678,7 +11825,7 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="76">
+      <c r="E108" s="75">
         <v>3698756.14</v>
       </c>
     </row>
@@ -11697,7 +11844,7 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="76">
+      <c r="E110" s="75">
         <v>613300</v>
       </c>
     </row>
@@ -11753,54 +11900,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -11814,22 +11961,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -11865,7 +12012,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="78">
         <f>178999110.38+175449340.61</f>
         <v>354448450.99000001</v>
       </c>
@@ -11877,7 +12024,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="79">
         <v>273649512.35000002</v>
       </c>
     </row>
@@ -11888,7 +12035,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="79">
         <v>7195791.3600000003</v>
       </c>
     </row>
@@ -11920,7 +12067,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <v>60672193.5</v>
       </c>
     </row>
@@ -11931,7 +12078,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="79">
         <v>47106418.049999997</v>
       </c>
     </row>
@@ -11942,7 +12089,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <f>468659.91+175970.09</f>
         <v>644630</v>
       </c>
@@ -11975,7 +12122,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="80">
+      <c r="E21" s="79">
         <v>956105379</v>
       </c>
     </row>
@@ -11986,7 +12133,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="80">
+      <c r="E22" s="79">
         <v>72873.31</v>
       </c>
     </row>
@@ -12081,7 +12228,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="80">
+      <c r="E31" s="79">
         <f>37110320.98+11855884.52</f>
         <v>48966205.5</v>
       </c>
@@ -12192,7 +12339,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="79">
         <v>272342624.26999998</v>
       </c>
     </row>
@@ -12203,7 +12350,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="79">
         <v>286522546.20999998</v>
       </c>
     </row>
@@ -12214,7 +12361,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="80">
+      <c r="E44" s="79">
         <v>18366134.789999999</v>
       </c>
     </row>
@@ -12234,7 +12381,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="79">
         <v>1196958.1399999999</v>
       </c>
     </row>
@@ -12245,7 +12392,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="80">
+      <c r="E47" s="79">
         <v>49301207.219999999</v>
       </c>
     </row>
@@ -12256,7 +12403,7 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E48" s="79">
         <v>135234800</v>
       </c>
     </row>
@@ -12276,7 +12423,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="80">
+      <c r="E50" s="79">
         <v>129262265.82000001</v>
       </c>
     </row>
@@ -12287,7 +12434,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="80">
+      <c r="E51" s="79">
         <v>70653477.230000004</v>
       </c>
     </row>
@@ -12298,7 +12445,7 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="80">
+      <c r="E52" s="79">
         <v>1397570</v>
       </c>
     </row>
@@ -12402,7 +12549,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="80">
+      <c r="E62" s="79">
         <v>18605932.740000002</v>
       </c>
     </row>
@@ -12413,7 +12560,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="80">
+      <c r="E63" s="79">
         <v>75481066.790000007</v>
       </c>
     </row>
@@ -12424,7 +12571,7 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="80">
+      <c r="E64" s="79">
         <v>3966450</v>
       </c>
     </row>
@@ -12444,7 +12591,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="80">
+      <c r="E66" s="79">
         <v>65143273.130000003</v>
       </c>
     </row>
@@ -12455,7 +12602,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="80">
+      <c r="E67" s="79">
         <v>124572365.59</v>
       </c>
     </row>
@@ -12466,7 +12613,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="80">
+      <c r="E68" s="79">
         <v>44119692.619999997</v>
       </c>
     </row>
@@ -12537,7 +12684,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="80">
+      <c r="E75" s="79">
         <f>8567047.38+10524458.37</f>
         <v>19091505.75</v>
       </c>
@@ -12569,7 +12716,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="80">
+      <c r="E78" s="79">
         <v>70038310</v>
       </c>
     </row>
@@ -12580,7 +12727,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="80">
+      <c r="E79" s="79">
         <v>1443000</v>
       </c>
     </row>
@@ -12611,7 +12758,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="80">
+      <c r="E82" s="79">
         <v>87146448.870000005</v>
       </c>
     </row>
@@ -12662,7 +12809,7 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="80">
+      <c r="E87" s="79">
         <v>2689660.97</v>
       </c>
     </row>
@@ -12673,7 +12820,7 @@
       <c r="D88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="80">
+      <c r="E88" s="79">
         <v>120690</v>
       </c>
     </row>
@@ -12693,7 +12840,7 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="80">
+      <c r="E90" s="79">
         <v>559459</v>
       </c>
     </row>
@@ -12704,7 +12851,7 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="80">
+      <c r="E91" s="79">
         <f>28331972.42+184200</f>
         <v>28516172.420000002</v>
       </c>
@@ -12716,7 +12863,7 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="81">
+      <c r="E92" s="80">
         <v>1781354.5</v>
       </c>
     </row>
@@ -12757,7 +12904,7 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="80">
+      <c r="E96" s="79">
         <v>262450</v>
       </c>
       <c r="F96" s="10"/>
@@ -12873,7 +13020,7 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="80">
+      <c r="E108" s="79">
         <v>633529005.95000005</v>
       </c>
     </row>
@@ -12892,7 +13039,7 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="80">
+      <c r="E110" s="79">
         <f>32700795.47+1781354.5+550000</f>
         <v>35032149.969999999</v>
       </c>
@@ -12949,54 +13096,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -13010,22 +13157,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -13060,7 +13207,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="81">
         <v>22446280.049999997</v>
       </c>
     </row>
@@ -13071,7 +13218,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="81">
         <v>56587799.109999999</v>
       </c>
     </row>
@@ -13082,7 +13229,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="81">
         <v>1743729.9000000004</v>
       </c>
     </row>
@@ -13114,7 +13261,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="81">
         <v>18154576.120000001</v>
       </c>
     </row>
@@ -13125,7 +13272,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="81">
         <v>24350685.600000001</v>
       </c>
     </row>
@@ -13136,7 +13283,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="81">
         <v>131375.98999915124</v>
       </c>
     </row>
@@ -13168,7 +13315,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="82">
+      <c r="E21" s="81">
         <v>545665975</v>
       </c>
     </row>
@@ -13179,7 +13326,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="82">
+      <c r="E22" s="81">
         <v>810451.68</v>
       </c>
     </row>
@@ -13263,7 +13410,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="82">
         <v>135373.94</v>
       </c>
     </row>
@@ -13616,7 +13763,7 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="83">
+      <c r="E64" s="82">
         <v>12500</v>
       </c>
     </row>
@@ -14082,7 +14229,7 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="84">
+      <c r="E110" s="83">
         <v>9800000</v>
       </c>
     </row>
@@ -14138,54 +14285,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -14199,22 +14346,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -14249,7 +14396,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="84">
         <v>30641546.77</v>
       </c>
     </row>
@@ -14260,7 +14407,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="84">
         <v>27652875.079999998</v>
       </c>
     </row>
@@ -14271,7 +14418,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="84">
         <v>3541909.44</v>
       </c>
     </row>
@@ -14303,7 +14450,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="84">
         <v>8334376.6299999999</v>
       </c>
     </row>
@@ -14314,7 +14461,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="84">
         <v>17432597.449999999</v>
       </c>
     </row>
@@ -14325,7 +14472,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="84">
         <v>218423.05</v>
       </c>
     </row>
@@ -14357,7 +14504,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="85">
+      <c r="E21" s="84">
         <v>497881951</v>
       </c>
     </row>
@@ -14368,7 +14515,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="86">
+      <c r="E22" s="85">
         <v>270144.40000000002</v>
       </c>
     </row>
@@ -14516,7 +14663,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="86">
+      <c r="E36" s="85">
         <v>40958411.32</v>
       </c>
     </row>
@@ -14573,7 +14720,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="86">
+      <c r="E42" s="85">
         <v>105580490.65000001</v>
       </c>
     </row>
@@ -14584,7 +14731,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="85">
         <v>58946123.619999997</v>
       </c>
     </row>
@@ -14595,7 +14742,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="86">
+      <c r="E44" s="85">
         <v>27215173.780000001</v>
       </c>
     </row>
@@ -14615,7 +14762,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="86">
+      <c r="E46" s="85">
         <v>1304803.08</v>
       </c>
     </row>
@@ -14626,7 +14773,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="86">
+      <c r="E47" s="85">
         <v>5418284</v>
       </c>
     </row>
@@ -14637,7 +14784,7 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="86">
+      <c r="E48" s="85">
         <v>8531484.1099999994</v>
       </c>
     </row>
@@ -14657,7 +14804,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="86">
+      <c r="E50" s="85">
         <v>36188492.460000001</v>
       </c>
     </row>
@@ -14668,7 +14815,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="86">
+      <c r="E51" s="85">
         <v>3720358.69</v>
       </c>
     </row>
@@ -14679,7 +14826,7 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="86">
+      <c r="E52" s="85">
         <v>45000</v>
       </c>
     </row>
@@ -14699,7 +14846,7 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="86">
+      <c r="E54" s="85">
         <v>1658656.74</v>
       </c>
     </row>
@@ -14710,7 +14857,7 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="85">
         <v>3268664</v>
       </c>
     </row>
@@ -14783,7 +14930,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="86">
+      <c r="E62" s="85">
         <v>5129738.55</v>
       </c>
     </row>
@@ -14794,7 +14941,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="86">
+      <c r="E63" s="85">
         <v>12552273</v>
       </c>
     </row>
@@ -14805,7 +14952,7 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="86">
+      <c r="E64" s="85">
         <v>78500</v>
       </c>
     </row>
@@ -14825,7 +14972,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="86">
+      <c r="E66" s="85">
         <v>57437169.159999996</v>
       </c>
     </row>
@@ -14836,7 +14983,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="86">
+      <c r="E67" s="85">
         <v>21203478.77</v>
       </c>
     </row>
@@ -14847,7 +14994,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="86">
+      <c r="E68" s="85">
         <v>274433127.38999999</v>
       </c>
     </row>
@@ -14918,7 +15065,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="86">
+      <c r="E75" s="85">
         <v>57487970.759999998</v>
       </c>
     </row>
@@ -14960,7 +15107,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="86">
+      <c r="E79" s="85">
         <v>31347331.280000001</v>
       </c>
     </row>
@@ -14991,7 +15138,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="86">
+      <c r="E82" s="85">
         <v>66794636.299999997</v>
       </c>
     </row>
@@ -15042,7 +15189,7 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="86">
+      <c r="E87" s="85">
         <v>7568328</v>
       </c>
     </row>
@@ -15073,7 +15220,7 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="86">
+      <c r="E90" s="85">
         <v>22557680.57</v>
       </c>
     </row>
@@ -15084,7 +15231,7 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="86">
+      <c r="E91" s="85">
         <v>28616358.739999998</v>
       </c>
     </row>
@@ -15327,54 +15474,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -15388,22 +15535,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -15537,7 +15684,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -15568,7 +15715,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -15577,7 +15724,7 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="73">
         <v>0</v>
       </c>
     </row>
@@ -15599,7 +15746,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="69">
         <v>0</v>
       </c>
     </row>
@@ -15663,7 +15810,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="68"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -15694,7 +15841,7 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="70">
         <v>0</v>
       </c>
     </row>
@@ -15705,7 +15852,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <v>0</v>
       </c>
     </row>
@@ -15753,7 +15900,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="69"/>
+      <c r="E41" s="68"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -15795,7 +15942,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="69"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -15804,7 +15951,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <v>0</v>
       </c>
     </row>
@@ -15837,7 +15984,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="71"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -15879,7 +16026,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="71"/>
+      <c r="E53" s="70"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -15921,7 +16068,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="73"/>
+      <c r="E57" s="72"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -15930,7 +16077,7 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="74">
+      <c r="E58" s="73">
         <v>0</v>
       </c>
     </row>
@@ -15941,7 +16088,7 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="74">
+      <c r="E59" s="73">
         <v>0</v>
       </c>
     </row>
@@ -15952,7 +16099,7 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="72">
         <v>0</v>
       </c>
     </row>
@@ -15963,7 +16110,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="73"/>
+      <c r="E61" s="72"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -16005,7 +16152,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="71"/>
+      <c r="E65" s="70"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -16047,7 +16194,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="69"/>
+      <c r="E69" s="68"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -16089,7 +16236,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="69"/>
+      <c r="E73" s="68"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -16107,7 +16254,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="88">
+      <c r="E75" s="87">
         <v>0</v>
       </c>
     </row>
@@ -16118,7 +16265,7 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="88">
+      <c r="E76" s="87">
         <v>0</v>
       </c>
     </row>
@@ -16351,7 +16498,7 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="89">
+      <c r="E98" s="88">
         <v>1498414.33</v>
       </c>
     </row>
@@ -16361,7 +16508,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="69"/>
+      <c r="E99" s="68"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -16369,7 +16516,7 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="87">
+      <c r="E100" s="86">
         <v>0</v>
       </c>
     </row>
@@ -16379,7 +16526,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="69"/>
+      <c r="E101" s="68"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -16387,7 +16534,7 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="71">
+      <c r="E102" s="70">
         <v>0</v>
       </c>
     </row>
@@ -16397,7 +16544,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="69"/>
+      <c r="E103" s="68"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -16405,7 +16552,7 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="71">
+      <c r="E104" s="70">
         <v>0</v>
       </c>
     </row>
@@ -16415,7 +16562,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="69"/>
+      <c r="E105" s="68"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -16423,7 +16570,7 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="71">
+      <c r="E106" s="70">
         <v>0</v>
       </c>
     </row>
@@ -16433,7 +16580,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="69"/>
+      <c r="E107" s="68"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -16452,7 +16599,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="69"/>
+      <c r="E109" s="68"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -16516,54 +16663,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -16577,22 +16724,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -16627,7 +16774,7 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="90">
         <f>33880474.99+46938474.79</f>
         <v>80818949.780000001</v>
       </c>
@@ -16650,7 +16797,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="90">
         <v>79512577.980000004</v>
       </c>
     </row>
@@ -16682,7 +16829,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="90">
         <v>16656856.800000001</v>
       </c>
     </row>
@@ -16693,7 +16840,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="91">
         <v>0</v>
       </c>
     </row>
@@ -16704,7 +16851,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="90">
         <f>49831393.29+1596025.65+15051326.23</f>
         <v>66478745.170000002</v>
       </c>
@@ -16728,7 +16875,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -16737,7 +16884,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="91">
+      <c r="E21" s="90">
         <v>611492682</v>
       </c>
     </row>
@@ -16748,7 +16895,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="91">
+      <c r="E22" s="90">
         <v>16773.05</v>
       </c>
     </row>
@@ -16759,7 +16906,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="92"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -16768,7 +16915,7 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="73">
         <v>0</v>
       </c>
     </row>
@@ -16790,7 +16937,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="69">
         <v>0</v>
       </c>
     </row>
@@ -16821,7 +16968,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="92">
         <v>0</v>
       </c>
     </row>
@@ -16854,7 +17001,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="69"/>
+      <c r="E32" s="68"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -16885,7 +17032,7 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="91">
+      <c r="E35" s="90">
         <v>23000</v>
       </c>
     </row>
@@ -16896,7 +17043,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <v>0</v>
       </c>
     </row>
@@ -16944,7 +17091,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="69"/>
+      <c r="E41" s="68"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -16953,7 +17100,7 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="91">
+      <c r="E42" s="90">
         <v>164422403.06</v>
       </c>
     </row>
@@ -16964,7 +17111,7 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="91">
+      <c r="E43" s="90">
         <v>78177014.129999995</v>
       </c>
     </row>
@@ -16975,7 +17122,7 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="91">
+      <c r="E44" s="90">
         <v>7078888.8899999997</v>
       </c>
     </row>
@@ -16986,7 +17133,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="69"/>
+      <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -16995,7 +17142,7 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="91">
+      <c r="E46" s="90">
         <v>18674734.800000001</v>
       </c>
     </row>
@@ -17006,7 +17153,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="91">
+      <c r="E47" s="90">
         <v>14482408.74</v>
       </c>
     </row>
@@ -17017,7 +17164,7 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="91">
+      <c r="E48" s="90">
         <v>9109843.7200000007</v>
       </c>
     </row>
@@ -17028,7 +17175,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="71"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -17037,7 +17184,7 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="91">
+      <c r="E50" s="90">
         <v>39238614.600000001</v>
       </c>
     </row>
@@ -17048,7 +17195,7 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="91">
+      <c r="E51" s="90">
         <v>12340275.810000001</v>
       </c>
     </row>
@@ -17059,7 +17206,7 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="91">
+      <c r="E52" s="90">
         <v>873601.22</v>
       </c>
     </row>
@@ -17070,7 +17217,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="71"/>
+      <c r="E53" s="70"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -17079,7 +17226,7 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="91">
+      <c r="E54" s="90">
         <v>912058.08</v>
       </c>
     </row>
@@ -17090,7 +17237,7 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="91">
+      <c r="E55" s="90">
         <v>2026179.86</v>
       </c>
     </row>
@@ -17101,7 +17248,7 @@
       <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="90">
+      <c r="E56" s="89">
         <v>111891</v>
       </c>
     </row>
@@ -17112,7 +17259,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="73"/>
+      <c r="E57" s="72"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -17121,7 +17268,7 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="74">
+      <c r="E58" s="73">
         <v>0</v>
       </c>
     </row>
@@ -17132,7 +17279,7 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="74">
+      <c r="E59" s="73">
         <v>0</v>
       </c>
     </row>
@@ -17143,7 +17290,7 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="72">
         <v>0</v>
       </c>
     </row>
@@ -17154,7 +17301,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="73"/>
+      <c r="E61" s="72"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -17163,7 +17310,7 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="91">
+      <c r="E62" s="90">
         <v>13987621.039999999</v>
       </c>
     </row>
@@ -17174,7 +17321,7 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="91">
+      <c r="E63" s="90">
         <v>12703020.24</v>
       </c>
     </row>
@@ -17185,7 +17332,7 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="91">
+      <c r="E64" s="90">
         <v>1561130.79</v>
       </c>
     </row>
@@ -17196,7 +17343,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="71"/>
+      <c r="E65" s="70"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -17205,7 +17352,7 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="91">
+      <c r="E66" s="90">
         <v>93271454.049999997</v>
       </c>
     </row>
@@ -17216,7 +17363,7 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="91">
+      <c r="E67" s="90">
         <v>68873500.170000002</v>
       </c>
     </row>
@@ -17227,7 +17374,7 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="91">
+      <c r="E68" s="90">
         <v>1526202.91</v>
       </c>
     </row>
@@ -17238,7 +17385,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="69"/>
+      <c r="E69" s="68"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -17280,7 +17427,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="69"/>
+      <c r="E73" s="68"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -17298,7 +17445,7 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="91">
+      <c r="E75" s="90">
         <v>27701176.010000002</v>
       </c>
     </row>
@@ -17309,7 +17456,7 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="92">
+      <c r="E76" s="91">
         <v>0</v>
       </c>
     </row>
@@ -17329,7 +17476,7 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="91">
+      <c r="E78" s="90">
         <v>16527161.9</v>
       </c>
     </row>
@@ -17340,7 +17487,7 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="91">
+      <c r="E79" s="90">
         <v>19666250</v>
       </c>
     </row>
@@ -17360,7 +17507,7 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="91">
+      <c r="E81" s="90">
         <v>95348593.239999995</v>
       </c>
     </row>
@@ -17371,7 +17518,7 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="91">
+      <c r="E82" s="90">
         <v>21496622.149999999</v>
       </c>
     </row>
@@ -17422,7 +17569,7 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="91">
+      <c r="E87" s="90">
         <v>6360251.8899999997</v>
       </c>
     </row>
@@ -17433,7 +17580,7 @@
       <c r="D88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="91">
+      <c r="E88" s="90">
         <v>137983.4</v>
       </c>
     </row>
@@ -17453,7 +17600,7 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="91">
+      <c r="E90" s="90">
         <f>354635.84+5952000</f>
         <v>6306635.8399999999</v>
       </c>
@@ -17465,7 +17612,7 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="91">
+      <c r="E91" s="90">
         <v>123012115.14</v>
       </c>
     </row>
@@ -17476,7 +17623,7 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="92">
+      <c r="E92" s="91">
         <v>0</v>
       </c>
     </row>
@@ -17517,7 +17664,7 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="91">
+      <c r="E96" s="90">
         <v>1168367.56</v>
       </c>
       <c r="F96" s="10"/>
@@ -17543,7 +17690,7 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="92">
+      <c r="E98" s="91">
         <v>0</v>
       </c>
     </row>
@@ -17553,7 +17700,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="69"/>
+      <c r="E99" s="68"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -17561,7 +17708,7 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="91">
+      <c r="E100" s="90">
         <v>20735</v>
       </c>
     </row>
@@ -17571,7 +17718,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="69"/>
+      <c r="E101" s="68"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -17579,7 +17726,7 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="91">
+      <c r="E102" s="90">
         <v>900</v>
       </c>
     </row>
@@ -17589,7 +17736,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="69"/>
+      <c r="E103" s="68"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -17597,7 +17744,7 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="71">
+      <c r="E104" s="70">
         <v>0</v>
       </c>
     </row>
@@ -17607,7 +17754,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="69"/>
+      <c r="E105" s="68"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -17615,7 +17762,7 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="91">
+      <c r="E106" s="90">
         <v>142990</v>
       </c>
     </row>
@@ -17625,7 +17772,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="69"/>
+      <c r="E107" s="68"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -17633,7 +17780,7 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="91">
+      <c r="E108" s="90">
         <v>6149609.4100000001</v>
       </c>
     </row>
@@ -17644,7 +17791,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="69"/>
+      <c r="E109" s="68"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -17652,7 +17799,7 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="91">
+      <c r="E110" s="90">
         <f>10320769.44+17346471.84</f>
         <v>27667241.280000001</v>
       </c>

--- a/SCBAA/2019/Region 3.xlsx
+++ b/SCBAA/2019/Region 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFCAC28-EFEB-47F7-815D-BCEB6B588B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735BA50-F7C1-49D9-A06D-37C342D4A0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="7" activeTab="11" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="9" activeTab="13" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanga" sheetId="1" r:id="rId1"/>
@@ -819,6 +819,13 @@
     </xf>
     <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,13 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,54 +1179,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1240,22 +1240,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1291,7 +1291,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="38">
-        <f>58218412.92+67362765.13</f>
         <v>125581178.05</v>
       </c>
     </row>
@@ -1314,7 +1313,6 @@
         <v>26</v>
       </c>
       <c r="E13" s="38">
-        <f>5811314.23+1962067+4715712.89</f>
         <v>12489094.120000001</v>
       </c>
     </row>
@@ -1326,7 +1324,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>247104153.60000002</v>
       </c>
     </row>
@@ -1380,7 +1377,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>108938942.00999999</v>
       </c>
     </row>
@@ -1485,7 +1481,6 @@
         <v>39</v>
       </c>
       <c r="E29" s="38">
-        <f>730000+215000</f>
         <v>945000</v>
       </c>
     </row>
@@ -1572,7 +1567,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>836589224.93000007</v>
       </c>
     </row>
@@ -1660,7 +1654,6 @@
         <v>11</v>
       </c>
       <c r="E46" s="38">
-        <f>1066821.41+124112.59</f>
         <v>1190934</v>
       </c>
     </row>
@@ -1672,7 +1665,6 @@
         <v>12</v>
       </c>
       <c r="E47" s="38">
-        <f>2203370.37+36130480.41</f>
         <v>38333850.779999994</v>
       </c>
     </row>
@@ -2131,7 +2123,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="38">
-        <f>37386982.19+14337922.33</f>
         <v>51724904.519999996</v>
       </c>
     </row>
@@ -2152,7 +2143,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>765464019.79999995</v>
       </c>
     </row>
@@ -2327,7 +2317,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -2339,7 +2328,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>765464019.79999995</v>
       </c>
     </row>
@@ -2361,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57124C84-2C7C-4F35-8318-965F155F13F4}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,54 +2362,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2435,22 +2423,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2519,7 +2507,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>1174810613.1999998</v>
       </c>
     </row>
@@ -2573,7 +2560,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>261463903.02000001</v>
       </c>
     </row>
@@ -2764,7 +2750,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2466491514.3299999</v>
       </c>
     </row>
@@ -3341,7 +3326,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2115700517.6000004</v>
       </c>
     </row>
@@ -3508,7 +3492,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="46">
-        <f>13194914.55+4864199.2+78489088.08+99940+616200+22730707.29+1346584.62+5618754.68+11573613.66</f>
         <v>138534002.08000001</v>
       </c>
     </row>
@@ -3517,7 +3500,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>301495893.50999999</v>
       </c>
     </row>
@@ -3529,7 +3511,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2417196411.1100006</v>
       </c>
     </row>
@@ -3564,54 +3545,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3625,22 +3606,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4740,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AB9F7-2B35-45AC-AD80-293C188170D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
@@ -4753,54 +4734,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4814,22 +4795,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4875,7 +4856,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="97">
         <v>0</v>
       </c>
     </row>
@@ -4886,7 +4867,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="97">
         <v>0</v>
       </c>
     </row>
@@ -4918,7 +4899,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="97">
         <v>0</v>
       </c>
     </row>
@@ -4929,7 +4910,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="97">
         <v>0</v>
       </c>
     </row>
@@ -4940,7 +4921,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="97">
         <v>0</v>
       </c>
     </row>
@@ -4972,7 +4953,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="101">
+      <c r="E21" s="97">
         <v>0</v>
       </c>
     </row>
@@ -4994,7 +4975,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="102"/>
+      <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -5014,7 +4995,7 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="97">
         <v>0</v>
       </c>
     </row>
@@ -5025,7 +5006,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E26" s="97">
         <v>0</v>
       </c>
     </row>
@@ -5056,7 +5037,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="101">
+      <c r="E29" s="97">
         <v>0</v>
       </c>
     </row>
@@ -5067,7 +5048,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="103">
+      <c r="E30" s="99">
         <v>0</v>
       </c>
     </row>
@@ -5555,7 +5536,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="103"/>
+      <c r="E77" s="99"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5586,7 +5567,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="102"/>
+      <c r="E80" s="98"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -5929,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9A3739-D956-438B-AC96-DCD180D12DC3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,54 +5923,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6003,22 +5984,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6087,7 +6068,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>556486531.62</v>
       </c>
     </row>
@@ -6141,7 +6121,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>120252143.59</v>
       </c>
     </row>
@@ -6257,7 +6236,6 @@
         <v>40</v>
       </c>
       <c r="E30" s="42">
-        <f>33088715.24+2358566.11</f>
         <v>35447281.350000001</v>
       </c>
     </row>
@@ -6333,7 +6311,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1794953425.4599998</v>
       </c>
     </row>
@@ -6890,7 +6867,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="42">
-        <f>50377065.37+5980218</f>
         <v>56357283.369999997</v>
       </c>
     </row>
@@ -6911,7 +6887,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1687306122.9199996</v>
       </c>
     </row>
@@ -7023,7 +6998,6 @@
         <v>13</v>
       </c>
       <c r="E104" s="42">
-        <f>80431367.98+57983356.96</f>
         <v>138414724.94</v>
       </c>
     </row>
@@ -7087,7 +7061,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>138414724.94</v>
       </c>
     </row>
@@ -7099,7 +7072,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1825720847.8599997</v>
       </c>
     </row>
@@ -7121,8 +7093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805806D-152C-4997-A4F5-FFFFAE4381FB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7134,54 +7106,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7195,22 +7167,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7279,7 +7251,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>409057079.80999994</v>
       </c>
     </row>
@@ -7333,7 +7304,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>505947147.42000002</v>
       </c>
     </row>
@@ -7524,7 +7494,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1778735323.8600001</v>
       </c>
     </row>
@@ -8081,7 +8050,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="55">
-        <f>62217223.24+250000</f>
         <v>62467223.240000002</v>
       </c>
     </row>
@@ -8102,7 +8070,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1587239451.46</v>
       </c>
     </row>
@@ -8277,7 +8244,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -8289,7 +8255,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1587239451.46</v>
       </c>
     </row>
@@ -8311,8 +8276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2037600-4D64-4CE4-94B0-64FDC45BD66F}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8324,54 +8289,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8385,22 +8350,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8469,7 +8434,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>104260942.08000001</v>
       </c>
     </row>
@@ -8512,7 +8476,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="63">
-        <f>69617805.19-1229305.51</f>
         <v>68388499.679999992</v>
       </c>
     </row>
@@ -8524,7 +8487,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>278424547.90000004</v>
       </c>
     </row>
@@ -8715,7 +8677,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1130021961.79</v>
       </c>
     </row>
@@ -8772,7 +8733,6 @@
         <v>12</v>
       </c>
       <c r="E43" s="63">
-        <f>376727191.46-9529026.32</f>
         <v>367198165.13999999</v>
       </c>
     </row>
@@ -8846,7 +8806,6 @@
         <v>11</v>
       </c>
       <c r="E50" s="63">
-        <f>103113521.16+14625063.45</f>
         <v>117738584.61</v>
       </c>
     </row>
@@ -8858,7 +8817,6 @@
         <v>12</v>
       </c>
       <c r="E51" s="63">
-        <f>32317164.03+44261251</f>
         <v>76578415.030000001</v>
       </c>
     </row>
@@ -8870,7 +8828,6 @@
         <v>13</v>
       </c>
       <c r="E52" s="63">
-        <f>585960+127820</f>
         <v>713780</v>
       </c>
     </row>
@@ -9017,7 +8974,6 @@
         <v>11</v>
       </c>
       <c r="E66" s="63">
-        <f>7127340.48+4067699.1+10952850.33+5700600.26+36079435.2</f>
         <v>63927925.370000005</v>
       </c>
     </row>
@@ -9029,7 +8985,6 @@
         <v>12</v>
       </c>
       <c r="E67" s="63">
-        <f>5308912.5+600325.58+15996654.35+4056573.83+8645067.15</f>
         <v>34607533.409999996</v>
       </c>
     </row>
@@ -9041,7 +8996,6 @@
         <v>13</v>
       </c>
       <c r="E68" s="63">
-        <f>7980+2283633.57+405579.6</f>
         <v>2697193.17</v>
       </c>
     </row>
@@ -9299,7 +9253,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>990713479.39999986</v>
       </c>
     </row>
@@ -9474,7 +9427,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -9486,7 +9438,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>990713479.39999986</v>
       </c>
     </row>
@@ -9508,8 +9459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9F19C2-42FE-4CFD-9E93-248087368D6E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9521,54 +9472,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -9582,22 +9533,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -9666,7 +9617,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>807319870.37999988</v>
       </c>
     </row>
@@ -9720,7 +9670,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>105101514.87</v>
       </c>
     </row>
@@ -9911,7 +9860,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1523956595.6799998</v>
       </c>
     </row>
@@ -10488,7 +10436,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>975380709.32999992</v>
       </c>
     </row>
@@ -10663,7 +10610,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="74">
-        <f>SUM(E95:E110)</f>
         <v>439521776.87</v>
       </c>
     </row>
@@ -10675,7 +10621,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1414902486.1999998</v>
       </c>
     </row>
@@ -10697,8 +10642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C678B0-E7A8-4F7D-82D6-247EEEA2474D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F108" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10710,54 +10655,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10771,22 +10716,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10855,7 +10800,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>505355661.18000007</v>
       </c>
     </row>
@@ -10909,7 +10853,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>177609705.68000001</v>
       </c>
     </row>
@@ -11100,7 +11043,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1957645633.7700002</v>
       </c>
     </row>
@@ -11146,7 +11088,6 @@
         <v>11</v>
       </c>
       <c r="E42" s="75">
-        <f>188809894.8-E54</f>
         <v>187593078.85000002</v>
       </c>
     </row>
@@ -11678,7 +11619,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1540287063.0200002</v>
       </c>
     </row>
@@ -11853,7 +11793,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>11981739.140000001</v>
       </c>
     </row>
@@ -11865,7 +11804,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1552268802.1600003</v>
       </c>
     </row>
@@ -11887,8 +11825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4071C9A0-690A-4F8B-858D-BECC4EBC23EB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11900,54 +11838,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -11961,22 +11899,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12013,7 +11951,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="78">
-        <f>178999110.38+175449340.61</f>
         <v>354448450.99000001</v>
       </c>
     </row>
@@ -12047,7 +11984,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>635293754.70000005</v>
       </c>
     </row>
@@ -12090,7 +12026,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="79">
-        <f>468659.91+175970.09</f>
         <v>644630</v>
       </c>
     </row>
@@ -12102,7 +12037,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>108423241.55</v>
       </c>
     </row>
@@ -12229,7 +12163,6 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="79">
-        <f>37110320.98+11855884.52</f>
         <v>48966205.5</v>
       </c>
     </row>
@@ -12294,7 +12227,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1748861454.0599999</v>
       </c>
     </row>
@@ -12685,7 +12617,6 @@
         <v>48</v>
       </c>
       <c r="E75" s="79">
-        <f>8567047.38+10524458.37</f>
         <v>19091505.75</v>
       </c>
     </row>
@@ -12852,7 +12783,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="79">
-        <f>28331972.42+184200</f>
         <v>28516172.420000002</v>
       </c>
     </row>
@@ -12873,7 +12803,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1507552966.0600002</v>
       </c>
     </row>
@@ -13040,7 +12969,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="79">
-        <f>32700795.47+1781354.5+550000</f>
         <v>35032149.969999999</v>
       </c>
     </row>
@@ -13049,7 +12977,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>668823605.92000008</v>
       </c>
     </row>
@@ -13061,7 +12988,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2176376571.9800005</v>
       </c>
     </row>
@@ -13096,54 +13022,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -13157,22 +13083,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -14285,54 +14211,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -14346,22 +14272,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -15474,54 +15400,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -15535,22 +15461,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -16650,8 +16576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1100BDE5-DDB9-4759-B6DE-829A8B77E139}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16663,54 +16589,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -16724,22 +16650,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="97" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -16775,7 +16701,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="90">
-        <f>33880474.99+46938474.79</f>
         <v>80818949.780000001</v>
       </c>
     </row>
@@ -16809,7 +16734,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>160331527.75999999</v>
       </c>
     </row>
@@ -16852,7 +16776,6 @@
         <v>29</v>
       </c>
       <c r="E18" s="90">
-        <f>49831393.29+1596025.65+15051326.23</f>
         <v>66478745.170000002</v>
       </c>
     </row>
@@ -16864,7 +16787,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>83135601.969999999</v>
       </c>
     </row>
@@ -17055,7 +16977,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>854999584.77999997</v>
       </c>
     </row>
@@ -17601,7 +17522,6 @@
         <v>58</v>
       </c>
       <c r="E90" s="90">
-        <f>354635.84+5952000</f>
         <v>6306635.8399999999</v>
       </c>
     </row>
@@ -17633,7 +17553,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>855927632.68000007</v>
       </c>
     </row>
@@ -17800,7 +17719,6 @@
         <v>13</v>
       </c>
       <c r="E110" s="90">
-        <f>10320769.44+17346471.84</f>
         <v>27667241.280000001</v>
       </c>
     </row>
@@ -17809,7 +17727,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>35149843.25</v>
       </c>
     </row>
@@ -17821,7 +17738,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>891077475.93000007</v>
       </c>
     </row>
